--- a/documentacao/sprint-1/requisitos.xlsx
+++ b/documentacao/sprint-1/requisitos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VITORIA\Data-Source\documentacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\VITORIA\Data-Source\documentacao\sprint-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="159">
   <si>
     <t>Histórico de alterações do documento</t>
   </si>
@@ -577,22 +577,34 @@
     <t>https://spring.io/</t>
   </si>
   <si>
-    <t>Com a indicação de x usuários, se os usuários indicados criarem uma conta, o "indicador" se tornará um usuário premium</t>
-  </si>
-  <si>
     <t>Na indicação de usuários, o usuário não pode "se auto-indicar"</t>
   </si>
   <si>
     <t>Usuários deverão ter dois tipos de perfis - premium ou free</t>
   </si>
   <si>
-    <t>Usuários premium terão privilégios que os usuários free não terão</t>
-  </si>
-  <si>
     <t>Descrição</t>
   </si>
   <si>
     <t>1.6</t>
+  </si>
+  <si>
+    <t>Pintar de amarelo o percentual de uso, caso algum componente de hardware atinja 60%</t>
+  </si>
+  <si>
+    <t>Pintar de vermelho o percentual de uso, caso algum componente de hardware atinja 75%</t>
+  </si>
+  <si>
+    <t>Alertar com um pop-up quando algum componente de hardware atingir 75%</t>
+  </si>
+  <si>
+    <t>Alertar com um pop-up quando tentarem acessar o sistema com dados de login inválidos</t>
+  </si>
+  <si>
+    <t>Com a indicação de 10 usuários, se os usuários indicados criarem uma conta, o "indicador" se tornará um usuário premium</t>
+  </si>
+  <si>
+    <t>Alertar com um pop-up caso haja problema na conexão com banco de dados - logo, problema na atualização do dashboard e/ou login</t>
   </si>
 </sst>
 </file>
@@ -852,7 +864,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -997,6 +1009,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2215,7 +2230,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -2339,7 +2354,7 @@
     </row>
     <row r="11" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>14</v>
@@ -2540,7 +2555,7 @@
       </c>
       <c r="P2" s="45">
         <f ca="1">TODAY()</f>
-        <v>43734</v>
+        <v>43761</v>
       </c>
       <c r="R2" s="18"/>
       <c r="T2" s="31"/>
@@ -5712,7 +5727,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5720,15 +5735,15 @@
         <v>1</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="37">
         <v>2</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>152</v>
+      <c r="C4" s="20" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5740,17 +5755,45 @@
       </c>
     </row>
     <row r="6" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="37">
+      <c r="B6" s="49">
         <v>4</v>
       </c>
-      <c r="C6" s="38" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="C6" s="26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="49">
+        <v>5</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="49">
+        <v>6</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="49">
+        <v>7</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="49">
+        <v>8</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>158</v>
+      </c>
+    </row>
     <row r="11" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5825,6 +5868,7 @@
     <row r="82" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/documentacao/sprint-1/requisitos.xlsx
+++ b/documentacao/sprint-1/requisitos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Histórico de Alterações" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="176">
   <si>
     <t>Histórico de alterações do documento</t>
   </si>
@@ -292,18 +292,9 @@
     <t>O cliente deverá ter o JRE instalado em seu computador</t>
   </si>
   <si>
-    <t>O software deverá coletar as informações de hardware do device</t>
-  </si>
-  <si>
     <t>O software deverá coletar os processos em execução do sistema operacional</t>
   </si>
   <si>
-    <t>O software deverá coletar o consumo de memória do device</t>
-  </si>
-  <si>
-    <t>O software deverá coletar o consumo do disco do device</t>
-  </si>
-  <si>
     <t>O software deverá coletar o desempenho da placa de vídeo</t>
   </si>
   <si>
@@ -322,9 +313,6 @@
     <t>O software deverá ter uma lista de softwares possivelmente maliciosos</t>
   </si>
   <si>
-    <t>O software deverá kickar do servidor users com softwares possivelmente maliosos instalados em seu device</t>
-  </si>
-  <si>
     <t>O software deverá bloquear no servidor a entrada de users que anteriormente tentaram acessá-lo com softwares possivelmente maliosos</t>
   </si>
   <si>
@@ -406,9 +394,6 @@
     <t>Desejável</t>
   </si>
   <si>
-    <t>A API OSHI deverá ser usada para captar os dados de hardware do device</t>
-  </si>
-  <si>
     <t>5.1</t>
   </si>
   <si>
@@ -442,9 +427,6 @@
     <t>O software deverá permitir ao administrador a inclusão de um ou mais usuários</t>
   </si>
   <si>
-    <t>O software deverá ter uma API que capta as informações do device do usuário</t>
-  </si>
-  <si>
     <t>12.1</t>
   </si>
   <si>
@@ -496,18 +478,12 @@
     <t>O software deverá ter autenticação de usuários</t>
   </si>
   <si>
-    <t>O sofware deverá ter um dashboard com as informações do hardware dos devices (servidores e máquina dos jogadores)</t>
-  </si>
-  <si>
     <t>Deverá ter gráficos e tabelas que devem carregar em até 10 segundos</t>
   </si>
   <si>
     <t>Não permitirá acesso ao sistema, caso o login não seja validado juntamento ao banco de dados</t>
   </si>
   <si>
-    <t>O software deverá uma tela detalhada com os dados do usuário e do seu device</t>
-  </si>
-  <si>
     <t>Thalita Igwe</t>
   </si>
   <si>
@@ -556,9 +532,6 @@
     <t>1, 3, 6</t>
   </si>
   <si>
-    <t>Aumentar o desempenho dos devices para manter a maior quantidade possível de jogadores nas salas, evitando assim perdas financeiras a médio-longo prazo</t>
-  </si>
-  <si>
     <t>O software deverá monitorar salas de jogos</t>
   </si>
   <si>
@@ -605,6 +578,84 @@
   </si>
   <si>
     <t>Alertar com um pop-up caso haja problema na conexão com banco de dados - logo, problema na atualização do dashboard e/ou login</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>Thalita Igwe e Vitoria Ferreira</t>
+  </si>
+  <si>
+    <t>Implementado</t>
+  </si>
+  <si>
+    <t>Rejeitado</t>
+  </si>
+  <si>
+    <t>A API OSHI deverá ser usada para captar os dados de hardware do dispositivo</t>
+  </si>
+  <si>
+    <t>O software deverá coletar o consumo de memória do dispositivo</t>
+  </si>
+  <si>
+    <t>O software deverá coletar o consumo do disco do dispositivo</t>
+  </si>
+  <si>
+    <t>Aumentar o desempenho dos dispositivos para manter a maior quantidade possível de jogadores nas salas, evitando assim perdas financeiras a médio-longo prazo</t>
+  </si>
+  <si>
+    <t>O software deverá kickar do servidor users com softwares possivelmente maliosos instalados em seu dispositivo</t>
+  </si>
+  <si>
+    <t>O software deverá uma tela detalhada com os dados do usuário e do seu dispositivo</t>
+  </si>
+  <si>
+    <t>O software deverá ter uma API que capta as informações do dispositivo do usuário</t>
+  </si>
+  <si>
+    <t>O sofware deverá ter um dashboard com as informações do hardware dos dispositivos (servidores e máquina dos jogadores)</t>
+  </si>
+  <si>
+    <t>O software deverá coletar as informações de hardware do dispositivo</t>
+  </si>
+  <si>
+    <t>Eliminado</t>
+  </si>
+  <si>
+    <t>O software deverá enviar alertas ao usuário</t>
+  </si>
+  <si>
+    <t>18.1</t>
+  </si>
+  <si>
+    <t>O software deverá pintar de amarelo o percentual de uso, caso algum componente de hardware atinja 60% da sua capacidade</t>
+  </si>
+  <si>
+    <t>O software deverá pintar de vermelho o percentual de uso, caso algum componente de hardware atinja 75% da sua capacidade</t>
+  </si>
+  <si>
+    <t>18.2</t>
+  </si>
+  <si>
+    <t>18.3</t>
+  </si>
+  <si>
+    <t>O software deverá abrir um pop-up caso haja problema na conexão com banco de dados - logo, problema na atualização do dashboard e/ou login</t>
+  </si>
+  <si>
+    <t>O software deverá ter conexão com um mensageiro</t>
+  </si>
+  <si>
+    <t>O mensageiro que fará conexão com o software deverá ser o Telegram</t>
+  </si>
+  <si>
+    <t>O software deverá enviar os erros para o Telegram</t>
+  </si>
+  <si>
+    <t>19.1</t>
+  </si>
+  <si>
+    <t>19.2</t>
   </si>
 </sst>
 </file>
@@ -980,6 +1031,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1009,9 +1063,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2230,7 +2281,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -2246,12 +2297,12 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:5" s="6" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -2340,7 +2391,7 @@
     </row>
     <row r="10" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
@@ -2354,7 +2405,7 @@
     </row>
     <row r="11" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>14</v>
@@ -2367,7 +2418,18 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E12" s="8"/>
+      <c r="B12" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="8">
+        <v>43761</v>
+      </c>
     </row>
     <row r="13" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E13" s="8"/>
@@ -2431,28 +2493,28 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2"/>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
     </row>
     <row r="36" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="40" t="s">
+      <c r="B36" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2"/>
     <row r="38" spans="2:5" hidden="1" x14ac:dyDescent="0.2"/>
@@ -2467,7 +2529,7 @@
     <mergeCell ref="B36:E36"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D11 D13:D32">
       <formula1>"Fernando Abreu,João Vinícius,Kessi Santana,Thalita Igwe,Vitoria Ferreira"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2483,14 +2545,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V73"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
       <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.85546875" style="28" customWidth="1"/>
@@ -2514,7 +2576,7 @@
     <col min="20" max="20" width="16.140625" style="22" customWidth="1"/>
     <col min="21" max="21" width="25.42578125" style="1" customWidth="1"/>
     <col min="22" max="22" width="3.7109375" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1" hidden="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:21" s="13" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2538,22 +2600,22 @@
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="34"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41" t="s">
+      <c r="E2" s="48"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="43" t="s">
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="45">
+      <c r="P2" s="46">
         <f ca="1">TODAY()</f>
         <v>43761</v>
       </c>
@@ -2564,18 +2626,18 @@
     <row r="3" spans="2:21" s="13" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="46"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="47"/>
       <c r="T3" s="31"/>
       <c r="U3" s="19"/>
     </row>
@@ -2660,7 +2722,7 @@
         <v>43</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>44</v>
@@ -2672,7 +2734,7 @@
         <v>44</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -2690,10 +2752,10 @@
         <v>N/A</v>
       </c>
       <c r="T5" s="32" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="2:21" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2715,7 +2777,7 @@
         <v>51</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>44</v>
@@ -2727,7 +2789,7 @@
         <v>44</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -2745,10 +2807,10 @@
         <v>N/A</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="2:21" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2770,7 +2832,7 @@
         <v>51</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>44</v>
@@ -2782,7 +2844,7 @@
         <v>44</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N7" s="4">
         <v>1</v>
@@ -2804,10 +2866,10 @@
         <v>Adequação ao escopo do projeto</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="2:21" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2829,7 +2891,7 @@
         <v>51</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>44</v>
@@ -2841,7 +2903,7 @@
         <v>44</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -2859,10 +2921,10 @@
         <v>N/A</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="2:21" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2871,7 +2933,7 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="10" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
@@ -2884,7 +2946,7 @@
         <v>51</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>44</v>
@@ -2896,7 +2958,7 @@
         <v>44</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -2914,19 +2976,19 @@
         <v>N/A</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="2:21" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
@@ -2939,7 +3001,7 @@
         <v>51</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>44</v>
@@ -2951,7 +3013,7 @@
         <v>44</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -2969,16 +3031,16 @@
         <v>N/A</v>
       </c>
       <c r="T10" s="36" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="2:21" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>52</v>
@@ -2994,19 +3056,19 @@
         <v>51</v>
       </c>
       <c r="I11" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="L11" s="4" t="s">
         <v>44</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -3024,16 +3086,16 @@
         <v>N/A</v>
       </c>
       <c r="T11" s="32" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="2:21" s="20" customFormat="1" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>53</v>
@@ -3049,19 +3111,19 @@
         <v>51</v>
       </c>
       <c r="I12" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="L12" s="4" t="s">
         <v>44</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -3079,10 +3141,10 @@
         <v>N/A</v>
       </c>
       <c r="T12" s="33" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="2:21" s="20" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
@@ -3091,7 +3153,7 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="10" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
@@ -3104,7 +3166,7 @@
         <v>43</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>44</v>
@@ -3116,10 +3178,10 @@
         <v>44</v>
       </c>
       <c r="M13" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="N13" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="O13" s="4"/>
       <c r="P13" s="5">
@@ -3136,19 +3198,19 @@
         <v>N/A</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="2:21" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
@@ -3161,7 +3223,7 @@
         <v>43</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>44</v>
@@ -3173,10 +3235,10 @@
         <v>44</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="O14" s="4"/>
       <c r="P14" s="5">
@@ -3193,19 +3255,19 @@
         <v>N/A</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="2:21" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
@@ -3218,7 +3280,7 @@
         <v>43</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>44</v>
@@ -3230,7 +3292,7 @@
         <v>44</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -3248,19 +3310,19 @@
         <v>N/A</v>
       </c>
       <c r="T15" s="32" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="2:21" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
@@ -3273,7 +3335,7 @@
         <v>43</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>44</v>
@@ -3285,10 +3347,10 @@
         <v>44</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="O16" s="4"/>
       <c r="P16" s="5">
@@ -3305,19 +3367,19 @@
         <v>N/A</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="U16" s="4" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="2:21" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
@@ -3330,7 +3392,7 @@
         <v>43</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>44</v>
@@ -3342,10 +3404,10 @@
         <v>44</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="O17" s="4"/>
       <c r="P17" s="5">
@@ -3362,19 +3424,19 @@
         <v>N/A</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="U17" s="4" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="2:21" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
@@ -3387,7 +3449,7 @@
         <v>43</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>44</v>
@@ -3399,10 +3461,10 @@
         <v>44</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="O18" s="4"/>
       <c r="P18" s="5">
@@ -3419,23 +3481,23 @@
         <v>N/A</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="U18" s="4" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="2:21" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>5</v>
@@ -3444,7 +3506,7 @@
         <v>43</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>44</v>
@@ -3456,7 +3518,7 @@
         <v>44</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
@@ -3474,7 +3536,7 @@
         <v>Adequação ao escopo do projeto</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="U19" s="4" t="s">
         <v>46</v>
@@ -3483,14 +3545,14 @@
     <row r="20" spans="2:21" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>5</v>
@@ -3499,7 +3561,7 @@
         <v>43</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>44</v>
@@ -3511,7 +3573,7 @@
         <v>44</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -3529,19 +3591,19 @@
         <v>N/A</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="U20" s="4" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="2:21" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
@@ -3554,7 +3616,7 @@
         <v>43</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>44</v>
@@ -3566,10 +3628,10 @@
         <v>44</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="O21" s="4"/>
       <c r="P21" s="5">
@@ -3586,22 +3648,22 @@
         <v>N/A</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="U21" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="2:21" s="20" customFormat="1" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" s="20" customFormat="1" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>4</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>48</v>
@@ -3613,19 +3675,19 @@
         <v>43</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>44</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>44</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
@@ -3643,10 +3705,10 @@
         <v>N/A</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="U22" s="4" t="s">
-        <v>46</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="2:21" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3655,11 +3717,11 @@
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>5</v>
@@ -3668,22 +3730,22 @@
         <v>43</v>
       </c>
       <c r="I23" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="L23" s="4" t="s">
         <v>44</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="O23" s="4"/>
       <c r="P23" s="5">
@@ -3700,7 +3762,7 @@
         <v>N/A</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="U23" s="4" t="s">
         <v>46</v>
@@ -3709,14 +3771,14 @@
     <row r="24" spans="2:21" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>5</v>
@@ -3725,19 +3787,19 @@
         <v>43</v>
       </c>
       <c r="I24" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J24" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="L24" s="4" t="s">
         <v>44</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -3755,7 +3817,7 @@
         <v>N/A</v>
       </c>
       <c r="T24" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="U24" s="4" t="s">
         <v>46</v>
@@ -3764,14 +3826,14 @@
     <row r="25" spans="2:21" s="20" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>64</v>
+        <v>158</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>5</v>
@@ -3780,19 +3842,19 @@
         <v>43</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>44</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>44</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
@@ -3810,7 +3872,7 @@
         <v>N/A</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="U25" s="4" t="s">
         <v>46</v>
@@ -3819,14 +3881,14 @@
     <row r="26" spans="2:21" s="26" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>5</v>
@@ -3835,19 +3897,19 @@
         <v>43</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>44</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L26" s="4" t="s">
         <v>44</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
@@ -3865,7 +3927,7 @@
         <v>N/A</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="U26" s="4" t="s">
         <v>46</v>
@@ -3877,7 +3939,7 @@
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="23" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E27" s="24"/>
       <c r="F27" s="24" t="s">
@@ -3890,19 +3952,19 @@
         <v>43</v>
       </c>
       <c r="I27" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="J27" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="K27" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="J27" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="K27" s="24" t="s">
-        <v>128</v>
-      </c>
       <c r="L27" s="24" t="s">
         <v>44</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N27" s="24"/>
       <c r="O27" s="24"/>
@@ -3920,19 +3982,19 @@
         <v>N/A</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="U27" s="24" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="2:21" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F28" s="35" t="s">
         <v>48</v>
@@ -3944,19 +4006,19 @@
         <v>43</v>
       </c>
       <c r="I28" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="J28" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="K28" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="J28" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="K28" s="24" t="s">
-        <v>128</v>
-      </c>
       <c r="L28" s="24" t="s">
         <v>44</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N28" s="24">
         <v>6</v>
@@ -3976,10 +4038,10 @@
         <v>N/A</v>
       </c>
       <c r="T28" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="U28" s="24" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="2:21" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3988,7 +4050,7 @@
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4" t="s">
@@ -4001,19 +4063,19 @@
         <v>43</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>44</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="L29" s="4" t="s">
         <v>44</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
@@ -4031,10 +4093,10 @@
         <v>N/A</v>
       </c>
       <c r="T29" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="U29" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="2:21" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4043,7 +4105,7 @@
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="20" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4" t="s">
@@ -4056,7 +4118,7 @@
         <v>43</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>44</v>
@@ -4068,10 +4130,10 @@
         <v>44</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="O30" s="4"/>
       <c r="P30" s="5">
@@ -4088,19 +4150,19 @@
         <v>N/A</v>
       </c>
       <c r="T30" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="U30" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="2:21" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4" t="s">
@@ -4113,22 +4175,22 @@
         <v>43</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>44</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L31" s="4" t="s">
         <v>44</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="O31" s="4"/>
       <c r="P31" s="5">
@@ -4145,19 +4207,19 @@
         <v>N/A</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="U31" s="4" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="2:21" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4" t="s">
@@ -4170,22 +4232,22 @@
         <v>51</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>44</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L32" s="4" t="s">
         <v>44</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="O32" s="4"/>
       <c r="P32" s="5">
@@ -4202,19 +4264,19 @@
         <v>N/A</v>
       </c>
       <c r="T32" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="U32" s="4" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="2:21" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4" t="s">
@@ -4227,22 +4289,22 @@
         <v>43</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>44</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L33" s="4" t="s">
         <v>44</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="O33" s="4"/>
       <c r="P33" s="5">
@@ -4259,10 +4321,10 @@
         <v>N/A</v>
       </c>
       <c r="T33" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="U33" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="2:21" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4271,11 +4333,11 @@
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="10" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>5</v>
@@ -4284,7 +4346,7 @@
         <v>43</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>44</v>
@@ -4296,7 +4358,7 @@
         <v>44</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N34" s="4">
         <v>2</v>
@@ -4316,19 +4378,19 @@
         <v>N/A</v>
       </c>
       <c r="T34" s="33" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="U34" s="4" t="s">
-        <v>46</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="2:21" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
@@ -4341,7 +4403,7 @@
         <v>43</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>44</v>
@@ -4353,7 +4415,7 @@
         <v>44</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N35" s="4"/>
       <c r="O35" s="4">
@@ -4373,10 +4435,10 @@
         <v>N/A</v>
       </c>
       <c r="T35" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="U35" s="4" t="s">
-        <v>46</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="2:21" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4385,7 +4447,7 @@
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="10" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4" t="s">
@@ -4398,22 +4460,22 @@
         <v>43</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>44</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L36" s="4" t="s">
         <v>44</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="O36" s="4"/>
       <c r="P36" s="5">
@@ -4430,7 +4492,7 @@
         <v>N/A</v>
       </c>
       <c r="T36" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="U36" s="4" t="s">
         <v>46</v>
@@ -4439,10 +4501,10 @@
     <row r="37" spans="2:21" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4" t="s">
@@ -4455,22 +4517,22 @@
         <v>43</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>44</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L37" s="4" t="s">
         <v>44</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="O37" s="4"/>
       <c r="P37" s="5">
@@ -4487,7 +4549,7 @@
         <v>N/A</v>
       </c>
       <c r="T37" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="U37" s="4" t="s">
         <v>46</v>
@@ -4496,10 +4558,10 @@
     <row r="38" spans="2:21" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4" t="s">
@@ -4512,22 +4574,22 @@
         <v>43</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J38" s="4" t="s">
         <v>44</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L38" s="4" t="s">
         <v>44</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="O38" s="4"/>
       <c r="P38" s="5">
@@ -4544,7 +4606,7 @@
         <v>N/A</v>
       </c>
       <c r="T38" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="U38" s="4" t="s">
         <v>46</v>
@@ -4553,10 +4615,10 @@
     <row r="39" spans="2:21" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4" t="s">
@@ -4569,22 +4631,22 @@
         <v>43</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J39" s="4" t="s">
         <v>44</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L39" s="4" t="s">
         <v>44</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="O39" s="4"/>
       <c r="P39" s="5">
@@ -4601,7 +4663,7 @@
         <v>Adequação ao escopo do projeto</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="U39" s="4" t="s">
         <v>46</v>
@@ -4610,10 +4672,10 @@
     <row r="40" spans="2:21" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
       <c r="C40" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4" t="s">
@@ -4626,22 +4688,22 @@
         <v>43</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>44</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L40" s="4" t="s">
         <v>44</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="O40" s="4"/>
       <c r="P40" s="5">
@@ -4658,7 +4720,7 @@
         <v>N/A</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="U40" s="4" t="s">
         <v>46</v>
@@ -4667,14 +4729,14 @@
     <row r="41" spans="2:21" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>5</v>
@@ -4683,22 +4745,22 @@
         <v>43</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>44</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L41" s="4" t="s">
         <v>44</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="O41" s="4"/>
       <c r="P41" s="5">
@@ -4715,23 +4777,23 @@
         <v>N/A</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="2:21" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>5</v>
@@ -4740,22 +4802,22 @@
         <v>43</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J42" s="4" t="s">
         <v>44</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L42" s="4" t="s">
         <v>44</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="O42" s="4"/>
       <c r="P42" s="5">
@@ -4772,10 +4834,10 @@
         <v>N/A</v>
       </c>
       <c r="T42" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="U42" s="4" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="2:21" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4784,11 +4846,11 @@
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>5</v>
@@ -4797,19 +4859,19 @@
         <v>43</v>
       </c>
       <c r="I43" s="29" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>44</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="L43" s="4" t="s">
         <v>44</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N43" s="4">
         <v>1</v>
@@ -4829,7 +4891,7 @@
         <v>N/A</v>
       </c>
       <c r="T43" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="U43" s="30" t="s">
         <v>46</v>
@@ -4841,7 +4903,7 @@
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="11" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4" t="s">
@@ -4854,7 +4916,7 @@
         <v>43</v>
       </c>
       <c r="I44" s="29" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>44</v>
@@ -4866,10 +4928,10 @@
         <v>44</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="O44" s="4"/>
       <c r="P44" s="5">
@@ -4886,19 +4948,19 @@
         <v>N/A</v>
       </c>
       <c r="T44" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="U44" s="30" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="2:21" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
       <c r="C45" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>104</v>
+        <v>160</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4" t="s">
@@ -4911,7 +4973,7 @@
         <v>43</v>
       </c>
       <c r="I45" s="29" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J45" s="4" t="s">
         <v>44</v>
@@ -4923,7 +4985,7 @@
         <v>44</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
@@ -4941,10 +5003,10 @@
         <v>N/A</v>
       </c>
       <c r="T45" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="U45" s="30" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="2:21" s="26" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4953,7 +5015,7 @@
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="10" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4" t="s">
@@ -4966,7 +5028,7 @@
         <v>43</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>44</v>
@@ -4978,7 +5040,7 @@
         <v>44</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
@@ -4996,7 +5058,7 @@
         <v>N/A</v>
       </c>
       <c r="T46" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="U46" s="4" t="s">
         <v>46</v>
@@ -5008,7 +5070,7 @@
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="10" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4" t="s">
@@ -5021,7 +5083,7 @@
         <v>43</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J47" s="4" t="s">
         <v>44</v>
@@ -5033,7 +5095,7 @@
         <v>44</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N47" s="4">
         <v>14</v>
@@ -5053,10 +5115,10 @@
         <v>N/A</v>
       </c>
       <c r="T47" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="U47" s="4" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="2:21" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5065,7 +5127,7 @@
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4" t="s">
@@ -5078,22 +5140,22 @@
         <v>43</v>
       </c>
       <c r="I48" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="J48" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="L48" s="4" t="s">
         <v>44</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="O48" s="4"/>
       <c r="P48" s="5">
@@ -5110,7 +5172,7 @@
         <v>N/A</v>
       </c>
       <c r="T48" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="U48" s="4" t="s">
         <v>46</v>
@@ -5122,7 +5184,7 @@
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="23" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E49" s="24"/>
       <c r="F49" s="24" t="s">
@@ -5135,22 +5197,22 @@
         <v>43</v>
       </c>
       <c r="I49" s="24" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J49" s="24" t="s">
         <v>44</v>
       </c>
       <c r="K49" s="24" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L49" s="24" t="s">
         <v>44</v>
       </c>
       <c r="M49" s="24" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="O49" s="24"/>
       <c r="P49" s="25">
@@ -5167,7 +5229,7 @@
         <v>N/A</v>
       </c>
       <c r="T49" s="24" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="U49" s="24" t="s">
         <v>46</v>
@@ -5179,11 +5241,11 @@
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E50" s="24"/>
       <c r="F50" s="24" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G50" s="24" t="s">
         <v>5</v>
@@ -5192,22 +5254,22 @@
         <v>43</v>
       </c>
       <c r="I50" s="24" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J50" s="24" t="s">
         <v>44</v>
       </c>
       <c r="K50" s="24" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L50" s="24" t="s">
         <v>44</v>
       </c>
       <c r="M50" s="24" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="O50" s="24"/>
       <c r="P50" s="25">
@@ -5224,165 +5286,410 @@
         <v>N/A</v>
       </c>
       <c r="T50" s="24" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="U50" s="24" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="51" spans="2:21" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="3"/>
+      <c r="B51" s="3">
+        <v>18</v>
+      </c>
       <c r="C51" s="3"/>
-      <c r="D51" s="11"/>
+      <c r="D51" s="11" t="s">
+        <v>164</v>
+      </c>
       <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
+      <c r="F51" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G51" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H51" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I51" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="J51" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="L51" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M51" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="O51" s="4"/>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="4"/>
-      <c r="S51" s="4"/>
-      <c r="T51" s="10"/>
-      <c r="U51" s="30"/>
-    </row>
-    <row r="52" spans="2:21" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P51" s="5">
+        <v>43761</v>
+      </c>
+      <c r="Q51" s="5">
+        <v>43761</v>
+      </c>
+      <c r="R51" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="S51" s="24" t="str">
+        <f>IF(requisitos[[#This Row],[Data da Criação]]&lt;&gt;requisitos[[#This Row],[Data Última Alteração]],"Adequação ao escopo do projeto","N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="T51" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="U51" s="24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="2:21" s="20" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="11"/>
+      <c r="C52" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>166</v>
+      </c>
       <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
+      <c r="F52" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G52" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I52" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="J52" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="L52" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M52" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="O52" s="4"/>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="4"/>
-      <c r="S52" s="4"/>
-      <c r="T52" s="10"/>
-      <c r="U52" s="30"/>
-    </row>
-    <row r="53" spans="2:21" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P52" s="5">
+        <v>43761</v>
+      </c>
+      <c r="Q52" s="5">
+        <v>43761</v>
+      </c>
+      <c r="R52" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="S52" s="24" t="str">
+        <f>IF(requisitos[[#This Row],[Data da Criação]]&lt;&gt;requisitos[[#This Row],[Data Última Alteração]],"Adequação ao escopo do projeto","N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="T52" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="U52" s="24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="2:21" s="20" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="11"/>
+      <c r="C53" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>167</v>
+      </c>
       <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
+      <c r="F53" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G53" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H53" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I53" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="J53" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="L53" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M53" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="O53" s="4"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="4"/>
-      <c r="R53" s="4"/>
-      <c r="S53" s="4"/>
-      <c r="T53" s="10"/>
-      <c r="U53" s="30"/>
-    </row>
-    <row r="54" spans="2:21" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P53" s="5">
+        <v>43761</v>
+      </c>
+      <c r="Q53" s="5">
+        <v>43761</v>
+      </c>
+      <c r="R53" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="S53" s="24" t="str">
+        <f>IF(requisitos[[#This Row],[Data da Criação]]&lt;&gt;requisitos[[#This Row],[Data Última Alteração]],"Adequação ao escopo do projeto","N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="T53" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="U53" s="24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="2:21" s="20" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="10"/>
+      <c r="C54" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>170</v>
+      </c>
       <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
+      <c r="F54" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G54" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I54" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="J54" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="L54" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M54" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="O54" s="4"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="4"/>
-      <c r="R54" s="4"/>
-      <c r="S54" s="4"/>
-      <c r="T54" s="10"/>
-      <c r="U54" s="4"/>
+      <c r="P54" s="5">
+        <v>43761</v>
+      </c>
+      <c r="Q54" s="5">
+        <v>43761</v>
+      </c>
+      <c r="R54" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="S54" s="24" t="str">
+        <f>IF(requisitos[[#This Row],[Data da Criação]]&lt;&gt;requisitos[[#This Row],[Data Última Alteração]],"Adequação ao escopo do projeto","N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="T54" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="U54" s="24" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="55" spans="2:21" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="3"/>
+      <c r="B55" s="3">
+        <v>19</v>
+      </c>
       <c r="C55" s="3"/>
-      <c r="D55" s="10"/>
+      <c r="D55" s="10" t="s">
+        <v>171</v>
+      </c>
       <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
+      <c r="F55" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G55" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H55" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I55" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="J55" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M55" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="O55" s="4"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="4"/>
-      <c r="R55" s="4"/>
-      <c r="S55" s="4"/>
-      <c r="T55" s="10"/>
-      <c r="U55" s="4"/>
+      <c r="P55" s="5">
+        <v>43761</v>
+      </c>
+      <c r="Q55" s="5">
+        <v>43761</v>
+      </c>
+      <c r="R55" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="S55" s="24" t="str">
+        <f>IF(requisitos[[#This Row],[Data da Criação]]&lt;&gt;requisitos[[#This Row],[Data Última Alteração]],"Adequação ao escopo do projeto","N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="T55" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="U55" s="24" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="56" spans="2:21" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="10"/>
+      <c r="C56" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>172</v>
+      </c>
       <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
+      <c r="F56" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G56" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H56" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I56" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="J56" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M56" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="N56" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="O56" s="4"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="4"/>
-      <c r="S56" s="4"/>
-      <c r="T56" s="10"/>
-      <c r="U56" s="4"/>
+      <c r="P56" s="5">
+        <v>43761</v>
+      </c>
+      <c r="Q56" s="5">
+        <v>43761</v>
+      </c>
+      <c r="R56" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="S56" s="24" t="str">
+        <f>IF(requisitos[[#This Row],[Data da Criação]]&lt;&gt;requisitos[[#This Row],[Data Última Alteração]],"Adequação ao escopo do projeto","N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="T56" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="U56" s="24" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="57" spans="2:21" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="10"/>
+      <c r="C57" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>173</v>
+      </c>
       <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
+      <c r="F57" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G57" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I57" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="J57" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M57" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="N57" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="O57" s="4"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="4"/>
-      <c r="R57" s="4"/>
-      <c r="S57" s="4"/>
-      <c r="T57" s="10"/>
-      <c r="U57" s="4"/>
+      <c r="P57" s="5">
+        <v>43761</v>
+      </c>
+      <c r="Q57" s="5">
+        <v>43761</v>
+      </c>
+      <c r="R57" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="S57" s="24" t="str">
+        <f>IF(requisitos[[#This Row],[Data da Criação]]&lt;&gt;requisitos[[#This Row],[Data Última Alteração]],"Adequação ao escopo do projeto","N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="T57" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="U57" s="24" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="58" spans="2:21" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
@@ -5667,25 +5974,25 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U54:U69 U5:U50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U5:U69">
       <formula1>"Proposto,Aprovado,Projetado,Implementado,Verificado, Entregue, Eliminado, Rejeitado"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I54:I69 I5:I50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I50 I58:I69">
       <formula1>"Máxima,Alta,Média,Baixa,Mínima"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H54:H69 H5:H50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H69">
       <formula1>"Funcional,Não Funcional"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J54:J69 J5:J50 L46:L48 L50 L40:L42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L40:L42 L46:L48 L50:L54 J5:J69">
       <formula1>"Gerson Santos,Célia Taniwaki,José Yoshihiro,Alex Barreira"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R54:R69 K54:K69 K5:K50 R5:R50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5:R50 K54:K69 K5:K50 R58:R69">
       <formula1>"Fernando Abreu,João Vinícius,Kessi Santana,Thalita Igwe,Vitoria Ferreira"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L54:L69 L5:L39 L43:L45 L49">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L49 L5:L39 L43:L45 L55:L69">
       <formula1>"Gerson Santos,Fernando Abreu,João Vinícius,Kessi Santana,Thalita Igwe,Vitoria Ferreira,Célia Taniwaki,Alex Barreira,José Yoshihiro"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F54:F69 F5:F27 F29:F50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F29:F50 F5:F27 F54:F69">
       <formula1>"Essencial,Importante,Desejável"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5708,9 +6015,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5727,7 +6034,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5735,7 +6042,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5743,7 +6050,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5751,47 +6058,47 @@
         <v>3</v>
       </c>
       <c r="C5" s="38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="39">
+        <v>4</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="39">
+        <v>5</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="39">
+        <v>6</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="39">
+        <v>7</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="39">
+        <v>8</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="49">
-        <v>4</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="49">
-        <v>5</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="49">
-        <v>6</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="49">
-        <v>7</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="49">
-        <v>8</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
